--- a/code/python/output/test/test_stats.xlsx
+++ b/code/python/output/test/test_stats.xlsx
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['new' 'new']
- ['amend' 'new']
- ['cancel' 'canceled']]</t>
+          <t>[['place' '3, 0']
+ ['cancel' '0, 1']
+ ['place' '3, 0']]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -471,14 +471,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['new' 'new']
- ['amend' 'reject']
- ['amend' 'new']
- ['cancel' 'canceled']]</t>
+          <t>[['place' '3, 0']
+ ['cancel' '0, 2']
+ ['place' '3, 0']]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -487,12 +486,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['new' 'new']
- ['trade' 'filled']]</t>
+          <t>[['place' '3, 0']
+ ['cancel' '0, 3']
+ ['place' '3, 0']]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['new' 'new']
- ['trade' 'pfilled']
- ['cancel' 'canceled']]</t>
+          <t>[['place' '3, 0']
+ ['cancel' '0, 4']
+ ['place' '3, 0']]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
